--- a/AEF_files/99.processed/202505141029---Vanuatu Annual Report_for review.xlsx
+++ b/AEF_files/99.processed/202505141029---Vanuatu Annual Report_for review.xlsx
@@ -4154,8 +4154,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d0671dbe340d15fdce5ab7e9f4c491">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2feafd61044eb4abe44eb47c2e62f3e5" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e758502e7902c92bdb050e89a8fea950">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4060acd4b29e25a8a76462245842ebf" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
     <xsd:import namespace="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
     <xsd:import namespace="13d80b15-5f07-43ab-b435-85767a7dac08"/>
@@ -4465,23 +4465,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEB2795A-11FE-420D-8F87-941A3030BC2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
-    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
-    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26811D0C-10C1-4291-94F5-6C5E0926A761}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
